--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/1_Adana_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/1_Adana_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{452FA1A4-37E7-492A-A3C2-13CFD0CEEA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B79AF3-7975-464E-A483-6D93EB62B38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{059B944B-D7A4-48CF-8B3F-1C4E788924E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{01AD188A-641F-4255-A914-F20CC106C554}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F0519A63-CD1B-4564-BE40-4E063BFB85FB}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CAA4D477-A665-40AF-B321-0019A680FB2E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{C78D4DDB-6963-4BBD-99CC-A875A43BFA03}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5F003B8F-D163-4ACE-BC6A-D4C4A9869CFC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E02144A7-505B-4948-9152-FA5B81768146}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A2C4161D-938E-4FFC-955A-5D46A603D6E2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{83EC0C32-7542-4D53-AB48-3888CF5CAC2B}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9C79EE83-7078-494C-828E-66F173E93177}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3F146BCB-8BA1-4738-A6F6-8A293B272AF6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5C96F717-DDF6-414C-8229-A757507BB679}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A8BED683-647B-4FB4-9DFE-5CF09FC89236}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0A671A19-A8DA-491E-8CC2-C83E6F1221F7}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{D85DC3D0-0262-457C-B46E-A6ED7472A632}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9BD73630-EDC5-463D-AEC3-A59673621763}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBABD34-3439-48AA-A39A-15A847B564F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237DB954-1BD9-4A17-8ED2-386F3320EA2E}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2633,7 +2633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80C965F-E582-42C6-B689-36E52506771A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFAE384-9E3A-4C52-949A-BDEA3B8986E8}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F102"/>
   <sheetViews>
@@ -3917,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3246C5-A02C-40B4-9878-2161BA516BF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D319843-045A-4609-8B4C-B10007CABEDF}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F102"/>
   <sheetViews>
@@ -5201,7 +5201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C1E60A-0376-451B-AEFF-005FBC0D92A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A8511C-FB1D-450A-8112-7C00FBC7A6CF}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:F102"/>
   <sheetViews>
@@ -6475,7 +6475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5BB03-D9AA-4346-BBDF-967981508020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89A46CC-B0F0-4DD3-821A-2458F1B916F9}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7794,7 +7794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F17B3F-A8D5-4D11-A6AE-BB0A2411F22A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAE8287-F3BA-4769-B14A-71FB6571A74C}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9113,7 +9113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A963F7-A8E1-43BA-9937-742BA3DEF99A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27B00FA-1DAD-4741-B40F-D8AD9C21A804}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10432,7 +10432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35198A9A-E0CE-4A4B-9113-45A5E78DCACF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62DB0DA-9899-47B8-AC60-C143D4044189}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11751,7 +11751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EAB8E7-9E2A-4CE0-8360-5BF8B65A2BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E189D8-0198-4500-B65B-16B4903FF248}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13070,7 +13070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C31B468-D43A-4382-9200-4163DD2A00A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EC0EC9-F097-45E5-A399-543E87781A9E}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14377,7 +14377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0515285C-95AD-4286-9D77-97E28186574F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBEACA9-3727-42B8-A70A-9FA3CA6B8975}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15684,7 +15684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E96D67-F2DB-48C9-8AD4-617B681C3EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC40EA04-37C7-4948-B1D3-88733C5ED517}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
